--- a/DATA/SCM/存货档案2021-10-01.XLSX
+++ b/DATA/SCM/存货档案2021-10-01.XLSX
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_product\KPI\KPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_product\KPI\DATA\SCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,123 +84,122 @@
     <t>安全库存</t>
   </si>
   <si>
+    <t>固定提前期</t>
+  </si>
+  <si>
+    <t>生产部门名称</t>
+  </si>
+  <si>
+    <t>变动提前期</t>
+  </si>
+  <si>
+    <t>变动基数</t>
+  </si>
+  <si>
+    <t>建档人</t>
+  </si>
+  <si>
+    <t>建档日期</t>
+  </si>
+  <si>
+    <t>启用日期</t>
+  </si>
+  <si>
+    <t>停用日期</t>
+  </si>
+  <si>
+    <t>毛重</t>
+  </si>
+  <si>
+    <t>出库超额上限</t>
+  </si>
+  <si>
+    <t>特征选配</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>888023069</t>
+  </si>
+  <si>
+    <t>砂布</t>
+  </si>
+  <si>
+    <t>1#</t>
+  </si>
+  <si>
+    <t>成品</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>采购</t>
+  </si>
+  <si>
+    <t>1303</t>
+  </si>
+  <si>
+    <t>刀具</t>
+  </si>
+  <si>
+    <t>PLM</t>
+  </si>
+  <si>
+    <t>888023070</t>
+  </si>
+  <si>
+    <t>3#</t>
+  </si>
+  <si>
+    <t>888023071</t>
+  </si>
+  <si>
+    <t>机液混合硫化机</t>
+  </si>
+  <si>
+    <t>LLP-B2250X9510</t>
+  </si>
+  <si>
+    <t>XH5.RA0P</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>硫化机</t>
+  </si>
+  <si>
+    <t>888023072</t>
+  </si>
+  <si>
+    <t>等径三通接头</t>
+  </si>
+  <si>
+    <t>3-Rc1/2</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>GB26120-2010</t>
+  </si>
+  <si>
+    <t>10050203</t>
+  </si>
+  <si>
+    <t>管接头</t>
+  </si>
+  <si>
     <t>最低供应量</t>
-  </si>
-  <si>
-    <t>固定提前期</t>
-  </si>
-  <si>
-    <t>生产部门名称</t>
-  </si>
-  <si>
-    <t>变动提前期</t>
-  </si>
-  <si>
-    <t>变动基数</t>
-  </si>
-  <si>
-    <t>建档人</t>
-  </si>
-  <si>
-    <t>建档日期</t>
-  </si>
-  <si>
-    <t>启用日期</t>
-  </si>
-  <si>
-    <t>停用日期</t>
-  </si>
-  <si>
-    <t>毛重</t>
-  </si>
-  <si>
-    <t>出库超额上限</t>
-  </si>
-  <si>
-    <t>特征选配</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>888023069</t>
-  </si>
-  <si>
-    <t>砂布</t>
-  </si>
-  <si>
-    <t>1#</t>
-  </si>
-  <si>
-    <t>成品</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>采购</t>
-  </si>
-  <si>
-    <t>1303</t>
-  </si>
-  <si>
-    <t>刀具</t>
-  </si>
-  <si>
-    <t>PLM</t>
-  </si>
-  <si>
-    <t>888023070</t>
-  </si>
-  <si>
-    <t>3#</t>
-  </si>
-  <si>
-    <t>888023071</t>
-  </si>
-  <si>
-    <t>机液混合硫化机</t>
-  </si>
-  <si>
-    <t>LLP-B2250X9510</t>
-  </si>
-  <si>
-    <t>XH5.RA0P</t>
-  </si>
-  <si>
-    <t>1201</t>
-  </si>
-  <si>
-    <t>硫化机</t>
-  </si>
-  <si>
-    <t>888023072</t>
-  </si>
-  <si>
-    <t>等径三通接头</t>
-  </si>
-  <si>
-    <t>3-Rc1/2</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>GB26120-2010</t>
-  </si>
-  <si>
-    <t>10050203</t>
-  </si>
-  <si>
-    <t>管接头</t>
-  </si>
-  <si>
-    <t>啦啦</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>我发的第三方</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+    <t>三明市华源橡塑机械有限公司</t>
+  </si>
+  <si>
+    <t>李宇豪</t>
   </si>
 </sst>
 </file>
@@ -215,6 +214,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -624,41 +624,41 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.15">
@@ -666,40 +666,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>39</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
       </c>
       <c r="Q2">
         <v>1.3734999999999999</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" t="s">
         <v>58</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="T2" s="3">
         <v>100</v>
@@ -708,10 +708,10 @@
         <v>10</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="1">
         <v>44440.585162037001</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.15">
@@ -731,31 +731,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
       <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
       </c>
       <c r="Q3">
         <v>1.7168000000000001</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA3" s="1">
         <v>44440.585162037001</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.15">
@@ -784,37 +784,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
         <v>47</v>
       </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>48</v>
-      </c>
-      <c r="O4" t="s">
-        <v>49</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="Z4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA4" s="1">
         <v>44440.585162037001</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.15">
@@ -834,40 +834,40 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="Z5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA5" s="1">
         <v>44441.636932870402</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.15">
